--- a/doc/final release/Tracking and charts.xlsx
+++ b/doc/final release/Tracking and charts.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Iteration 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Iteration 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration 4" sheetId="2" r:id="rId2"/>
     <sheet name="Charts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
   <si>
     <t>Story</t>
   </si>
@@ -27,134 +27,119 @@
     <t>Developer</t>
   </si>
   <si>
-    <t>System Location</t>
-  </si>
-  <si>
-    <t>System Cost</t>
-  </si>
-  <si>
-    <t>Write tests</t>
-  </si>
-  <si>
     <t>Story Points: 1</t>
   </si>
   <si>
     <t>Story Points: 2</t>
   </si>
   <si>
-    <t>Panels and Orientations</t>
-  </si>
-  <si>
-    <t>System Size</t>
-  </si>
-  <si>
-    <t>Electricity Usage</t>
-  </si>
-  <si>
-    <t>Hours of Sunlight</t>
-  </si>
-  <si>
-    <t>Input Validation</t>
-  </si>
-  <si>
-    <t>Electricity Tariffs</t>
-  </si>
-  <si>
-    <t>Electricity Tariff Increase</t>
-  </si>
-  <si>
-    <t>Daily Solar Generation</t>
-  </si>
-  <si>
-    <t>Daily Solar Used</t>
-  </si>
-  <si>
-    <t>Annual Solar Generation</t>
-  </si>
-  <si>
-    <t>Simple Output</t>
-  </si>
-  <si>
-    <t>Assumptions Made</t>
-  </si>
-  <si>
     <t>Alvis</t>
   </si>
   <si>
-    <t>Alvis/Dane</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Story/Task</t>
   </si>
   <si>
-    <t>Write validation tests</t>
-  </si>
-  <si>
-    <t>Add interface elements</t>
-  </si>
-  <si>
-    <t>Cherry/Dane</t>
-  </si>
-  <si>
     <t>Dane</t>
   </si>
   <si>
-    <t>Implement class for server-side input validation</t>
-  </si>
-  <si>
-    <t>0.5/0.5</t>
-  </si>
-  <si>
-    <t>Add method to build drop-down list</t>
-  </si>
-  <si>
-    <t>Add methods to build drop-down lists</t>
-  </si>
-  <si>
-    <t>Add javascript</t>
-  </si>
-  <si>
-    <t>Replacement Inverters</t>
-  </si>
-  <si>
     <t>Desktop Application</t>
   </si>
   <si>
-    <t>Begin implementing interface</t>
-  </si>
-  <si>
     <t>Cedric</t>
   </si>
   <si>
-    <t>0.5/1</t>
-  </si>
-  <si>
-    <t>Implement class for calculation</t>
-  </si>
-  <si>
-    <t>Output results to page</t>
-  </si>
-  <si>
-    <t>Output information to page</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Store and retrieve information with Datastore</t>
-  </si>
-  <si>
-    <t>Cherry</t>
+    <t>Daily Solar Exported</t>
+  </si>
+  <si>
+    <t>Daily Savings</t>
+  </si>
+  <si>
+    <t>Annual Savings</t>
+  </si>
+  <si>
+    <t>Cumulative Savings</t>
+  </si>
+  <si>
+    <t>Investment Return Rate</t>
+  </si>
+  <si>
+    <t>Advanced Output</t>
+  </si>
+  <si>
+    <t>Break Even Point</t>
+  </si>
+  <si>
+    <t>Expected Solar Generation</t>
+  </si>
+  <si>
+    <t>Ideal Potential Return</t>
+  </si>
+  <si>
+    <t>Rising Electricity Costs</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>Automatic Percentages</t>
+  </si>
+  <si>
+    <t>Enter Key For Location</t>
+  </si>
+  <si>
+    <t>Industry Standard Values</t>
+  </si>
+  <si>
+    <t>Optional Fields</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Validation class</t>
+  </si>
+  <si>
+    <t>Servlet</t>
+  </si>
+  <si>
+    <t>Website functionality</t>
+  </si>
+  <si>
+    <t>Misc. Validation</t>
+  </si>
+  <si>
+    <t>Dane/Cherry/Matthew</t>
+  </si>
+  <si>
+    <t>Dane/Cherry</t>
+  </si>
+  <si>
+    <t>1.5/1/1</t>
+  </si>
+  <si>
+    <t>5.5/1/2.5</t>
+  </si>
+  <si>
+    <t>1.5/10</t>
+  </si>
+  <si>
+    <t>Calculation class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +169,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -221,6 +212,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -284,7 +286,7 @@
           </c:tx>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="3"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
                 <c:v>Total</c:v>
               </c:pt>
@@ -293,20 +295,32 @@
               </c:pt>
               <c:pt idx="2">
                 <c:v>Iteration 2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Iteration 3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Iteration 4</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>25</c:v>
+                <c:v>49</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>13</c:v>
+                <c:v>37</c:v>
               </c:pt>
               <c:pt idx="2">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
                 <c:v>0</c:v>
               </c:pt>
             </c:numLit>
@@ -319,18 +333,44 @@
           <c:tx>
             <c:v>Actual</c:v>
           </c:tx>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Total</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Iteration 1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Iteration 2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Iteration 3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Iteration 4</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="3"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>25</c:v>
+                <c:v>49</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>18</c:v>
+                <c:v>42</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>5</c:v>
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
               </c:pt>
             </c:numLit>
           </c:val>
@@ -346,11 +386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40964480"/>
-        <c:axId val="40966016"/>
+        <c:axId val="38006144"/>
+        <c:axId val="38603392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40964480"/>
+        <c:axId val="38006144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40966016"/>
+        <c:crossAx val="38603392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -368,7 +408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40966016"/>
+        <c:axId val="38603392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40964480"/>
+        <c:crossAx val="38006144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -445,10 +485,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>44</c:v>
+                <c:v>297</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>8</c:v>
+                <c:v>16</c:v>
               </c:pt>
             </c:numLit>
           </c:val>
@@ -494,11 +534,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="40995456"/>
-        <c:axId val="40997248"/>
+        <c:axId val="53045504"/>
+        <c:axId val="81440768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40995456"/>
+        <c:axId val="53045504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40997248"/>
+        <c:crossAx val="81440768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -515,7 +555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40997248"/>
+        <c:axId val="81440768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40995456"/>
+        <c:crossAx val="53045504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -724,7 +764,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Velocity: 10</a:t>
+            <a:t>Velocity: 9.25</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1038,19 +1078,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -1066,130 +1106,122 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E6" s="3">
         <v>1.5</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.5</v>
+      </c>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,249 +1229,332 @@
         <v>30</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3">
         <v>0.5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3">
-        <v>4</v>
-      </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.5</v>
+      </c>
       <c r="F32" s="3"/>
     </row>
   </sheetData>
@@ -1495,89 +1610,81 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>0.5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.5</v>
-      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1586,221 +1693,187 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <v>0.5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3">
         <v>0.5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,7 +1911,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
@@ -1877,12 +1950,12 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
@@ -1939,9 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
